--- a/website/static/acts.xlsx
+++ b/website/static/acts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1545">
   <si>
     <t>Act</t>
   </si>
@@ -3252,6 +3252,33 @@
   </si>
   <si>
     <t>Make chicken soup for an ill family member. It soothes sore throats in people with colds and the flu, and its anti-inflammatory agents may boost the immune system.</t>
+  </si>
+  <si>
+    <t>tttttttttttttttttttttttt</t>
+  </si>
+  <si>
+    <t>sfdgkdlgdkfl</t>
+  </si>
+  <si>
+    <t>dasdasaddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>asddadladl;skdafa;lkl</t>
+  </si>
+  <si>
+    <t>asdasdasdsssssssssssssssssssssssssssss</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>oooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>oppppppppppppppppppppppppppppppppppppppppppppppp</t>
+  </si>
+  <si>
+    <t>llooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
   </si>
   <si>
     <t xml:space="preserve"> Watch commercials, infomercials, or advertisements</t>
@@ -4954,7 +4981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1151"/>
+  <dimension ref="A1:D1160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17621,6 +17648,105 @@
         <v>44789.67630787037</v>
       </c>
       <c r="D1151" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4">
+      <c r="A1152" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1152">
+        <v>44789.84423611111</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4">
+      <c r="A1153" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1153">
+        <v>44789.8481712963</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4">
+      <c r="A1154" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1154">
+        <v>44789.8496875</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4">
+      <c r="A1155" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1155">
+        <v>44789.84975694444</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4">
+      <c r="A1156" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1156">
+        <v>44789.84987268518</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4">
+      <c r="A1157" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1157">
+        <v>44789.84996527778</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4">
+      <c r="A1158" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1158">
+        <v>44789.85086805555</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4">
+      <c r="A1159" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1159">
+        <v>44789.85094907408</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4">
+      <c r="A1160" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1160">
+        <v>44789.85106481481</v>
+      </c>
+      <c r="D1160" t="s">
         <v>522</v>
       </c>
     </row>
@@ -17644,2292 +17770,2292 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1091</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1111</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1115</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1130</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1132</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1148</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1149</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1156</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1158</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1159</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1160</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1161</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>1163</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>1164</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1166</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1167</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1168</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>1169</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>1170</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1171</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>1172</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1173</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>1174</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1175</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1176</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>1177</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>1178</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>1179</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>1180</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>1181</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>1182</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>1184</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>1185</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>1186</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>1187</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>1188</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>1189</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>1190</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>1191</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>1192</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>1193</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>1194</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>1195</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>1196</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>1198</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>1199</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>1200</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>1203</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>1204</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>1205</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>1206</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1207</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>1209</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>1210</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1211</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>1212</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>1213</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>1215</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>1216</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>1217</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>1220</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>1223</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>1224</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>1226</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>1228</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>1229</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>1236</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>1239</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>1240</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>1241</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>1242</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>1243</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>1244</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>1246</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>1247</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>1248</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>1249</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>1250</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>1251</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>1252</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>1253</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>1254</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>1256</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>1257</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>1258</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>1259</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>1260</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>1261</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>1262</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>1263</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>1264</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>1266</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>1268</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>1270</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>1271</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>1272</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>1276</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>1277</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>1278</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>1279</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>1280</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>1281</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>1282</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>1285</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>1286</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>1287</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>1291</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>1292</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>1293</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>1294</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>1295</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>1296</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>1298</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>1300</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>1301</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>1302</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>1303</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>1276</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>1304</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>1305</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>1306</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>1307</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>1308</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>1309</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>1310</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>1311</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>1312</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>1313</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>1314</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>1315</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>1316</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>1317</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>1318</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>1320</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>1321</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>1322</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>1323</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>1324</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>1325</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>1326</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>1330</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>1331</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>1332</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>1333</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>1334</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>1336</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>1338</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>1339</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>1340</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>1341</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>1342</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>1349</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>1352</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>1353</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>1356</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>1358</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>1359</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>1360</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>1361</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>1362</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>1379</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>1380</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>1381</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>1382</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>1383</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>1384</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>1386</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>1387</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>1388</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>1390</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>1391</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>1392</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>1393</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>1394</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>1401</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>1407</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>1408</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>1409</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>1410</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>1411</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>1412</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>1414</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>1416</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>1422</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>1430</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>1431</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>1432</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>1433</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>1434</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>1436</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>1437</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>1439</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>1440</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>1441</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>1442</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>1443</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>1445</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>1446</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>1448</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>1450</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>1451</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>1452</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>1453</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>1455</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>1456</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>1457</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>1458</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>1459</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>1460</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>1461</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>1462</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>1463</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>1464</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>1466</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>1468</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>1469</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>1470</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>1471</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>1472</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>1473</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>1475</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>1476</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>1477</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>1478</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>1481</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>1482</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>1483</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>1484</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>1485</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>1486</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>1487</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>1488</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>1489</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>1490</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>1491</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>1493</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>1495</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>1497</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>1498</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>1499</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>1500</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>1501</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>1502</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>1503</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>1504</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>1505</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>1506</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>1507</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>1508</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>1509</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>1510</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>1511</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>1512</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>1513</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>1514</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>1515</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>1516</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>1517</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>1518</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>1519</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>1520</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>1521</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>1522</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>1524</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>1525</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>1526</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>1527</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>1528</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>1529</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>1530</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>1531</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>1532</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
     </row>
   </sheetData>

--- a/website/static/acts.xlsx
+++ b/website/static/acts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="1539">
   <si>
     <t>Act</t>
   </si>
@@ -3254,31 +3254,13 @@
     <t>Make chicken soup for an ill family member. It soothes sore throats in people with colds and the flu, and its anti-inflammatory agents may boost the immune system.</t>
   </si>
   <si>
-    <t>tttttttttttttttttttttttt</t>
-  </si>
-  <si>
-    <t>sfdgkdlgdkfl</t>
-  </si>
-  <si>
-    <t>dasdasaddddddddddddddddddddddddddd</t>
-  </si>
-  <si>
-    <t>asddadladl;skdafa;lkl</t>
-  </si>
-  <si>
-    <t>asdasdasdsssssssssssssssssssssssssssss</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>oooooooooooooooooooooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>oppppppppppppppppppppppppppppppppppppppppppppppp</t>
-  </si>
-  <si>
-    <t>llooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+    <t>One of my favorite columns in Woman's Day is the Kindness Project. The idea behind it is very simple: We showcase our readers' kind acts toward others. The column is one of the most popular in the magazine, and we always have a steady stream of submissions from people eager to share their good deeds.</t>
+  </si>
+  <si>
+    <t>Kindness is exactly what we need in our fractured world right now — it provides the simplest path to healing. Let's all begin! Here, 31 days of good deeds to get you started</t>
+  </si>
+  <si>
+    <t>sdasdsdsfffffffffffffffffffffffffffffffffffffffffffffffffff</t>
   </si>
   <si>
     <t xml:space="preserve"> Watch commercials, infomercials, or advertisements</t>
@@ -4981,7 +4963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1160"/>
+  <dimension ref="A1:D1154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17656,7 +17638,7 @@
         <v>1079</v>
       </c>
       <c r="C1152">
-        <v>44789.84423611111</v>
+        <v>44789.898125</v>
       </c>
       <c r="D1152" t="s">
         <v>522</v>
@@ -17667,7 +17649,7 @@
         <v>1080</v>
       </c>
       <c r="C1153">
-        <v>44789.8481712963</v>
+        <v>44789.90025462963</v>
       </c>
       <c r="D1153" t="s">
         <v>522</v>
@@ -17678,75 +17660,9 @@
         <v>1081</v>
       </c>
       <c r="C1154">
-        <v>44789.8496875</v>
+        <v>44790.6808912037</v>
       </c>
       <c r="D1154" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:4">
-      <c r="A1155" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C1155">
-        <v>44789.84975694444</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:4">
-      <c r="A1156" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C1156">
-        <v>44789.84987268518</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:4">
-      <c r="A1157" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C1157">
-        <v>44789.84996527778</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:4">
-      <c r="A1158" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C1158">
-        <v>44789.85086805555</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:4">
-      <c r="A1159" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C1159">
-        <v>44789.85094907408</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:4">
-      <c r="A1160" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C1160">
-        <v>44789.85106481481</v>
-      </c>
-      <c r="D1160" t="s">
         <v>522</v>
       </c>
     </row>
@@ -17770,2292 +17686,2292 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>

--- a/website/static/acts.xlsx
+++ b/website/static/acts.xlsx
@@ -3254,13 +3254,13 @@
     <t>Make chicken soup for an ill family member. It soothes sore throats in people with colds and the flu, and its anti-inflammatory agents may boost the immune system.</t>
   </si>
   <si>
-    <t>One of my favorite columns in Woman's Day is the Kindness Project. The idea behind it is very simple: We showcase our readers' kind acts toward others. The column is one of the most popular in the magazine, and we always have a steady stream of submissions from people eager to share their good deeds.</t>
-  </si>
-  <si>
-    <t>Kindness is exactly what we need in our fractured world right now — it provides the simplest path to healing. Let's all begin! Here, 31 days of good deeds to get you started</t>
-  </si>
-  <si>
-    <t>sdasdsdsfffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+    <t>We both assumed, as parents of young children, that kindness is just something our kids would pick up by osmosis, because we love them. It's a common assumption.</t>
+  </si>
+  <si>
+    <t>jjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjj</t>
+  </si>
+  <si>
+    <t>ooooooooooooooooooooo</t>
   </si>
   <si>
     <t xml:space="preserve"> Watch commercials, infomercials, or advertisements</t>
@@ -17638,7 +17638,7 @@
         <v>1079</v>
       </c>
       <c r="C1152">
-        <v>44789.898125</v>
+        <v>44790.85359953704</v>
       </c>
       <c r="D1152" t="s">
         <v>522</v>
@@ -17649,7 +17649,7 @@
         <v>1080</v>
       </c>
       <c r="C1153">
-        <v>44789.90025462963</v>
+        <v>44790.85430555556</v>
       </c>
       <c r="D1153" t="s">
         <v>522</v>
@@ -17660,7 +17660,7 @@
         <v>1081</v>
       </c>
       <c r="C1154">
-        <v>44790.6808912037</v>
+        <v>44790.8547800926</v>
       </c>
       <c r="D1154" t="s">
         <v>522</v>

--- a/website/static/acts.xlsx
+++ b/website/static/acts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1537">
   <si>
     <t>Act</t>
   </si>
@@ -3254,13 +3254,7 @@
     <t>Make chicken soup for an ill family member. It soothes sore throats in people with colds and the flu, and its anti-inflammatory agents may boost the immune system.</t>
   </si>
   <si>
-    <t>We both assumed, as parents of young children, that kindness is just something our kids would pick up by osmosis, because we love them. It's a common assumption.</t>
-  </si>
-  <si>
-    <t>jjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjj</t>
-  </si>
-  <si>
-    <t>ooooooooooooooooooooo</t>
+    <t>dddddddddddddddddd</t>
   </si>
   <si>
     <t xml:space="preserve"> Watch commercials, infomercials, or advertisements</t>
@@ -4963,7 +4957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1154"/>
+  <dimension ref="A1:D1152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17638,31 +17632,9 @@
         <v>1079</v>
       </c>
       <c r="C1152">
-        <v>44790.85359953704</v>
+        <v>44791.88439814815</v>
       </c>
       <c r="D1152" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:4">
-      <c r="A1153" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C1153">
-        <v>44790.85430555556</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:4">
-      <c r="A1154" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C1154">
-        <v>44790.8547800926</v>
-      </c>
-      <c r="D1154" t="s">
         <v>522</v>
       </c>
     </row>
@@ -17686,2292 +17658,2292 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
